--- a/na_jedne_noze.xlsx
+++ b/na_jedne_noze.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansu\Desktop\m_a_bakalarka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CBE531-3D51-451D-8790-A785F739BA78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB220269-EE79-4A98-943B-CB2C0FFB1D21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Silový trénink</t>
   </si>
@@ -39,57 +39,24 @@
     <t>1.</t>
   </si>
   <si>
-    <t>​17s</t>
-  </si>
-  <si>
-    <t>​19s</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
-    <t>​1m18s</t>
-  </si>
-  <si>
-    <t>​47s</t>
-  </si>
-  <si>
     <t>3.</t>
   </si>
   <si>
-    <t>​1m25s</t>
-  </si>
-  <si>
-    <t>​51s</t>
-  </si>
-  <si>
     <t>4.</t>
   </si>
   <si>
-    <t>​1m16s</t>
-  </si>
-  <si>
-    <t>​1m20s</t>
-  </si>
-  <si>
     <t>5.</t>
   </si>
   <si>
-    <t>​1m20</t>
-  </si>
-  <si>
     <t>6.</t>
   </si>
   <si>
     <t>7.</t>
   </si>
   <si>
-    <t>​30s</t>
-  </si>
-  <si>
-    <t>​1m30s</t>
-  </si>
-  <si>
     <t>8.</t>
   </si>
   <si>
@@ -100,33 +67,6 @@
   </si>
   <si>
     <t>Funkční trénink</t>
-  </si>
-  <si>
-    <t>1m5s</t>
-  </si>
-  <si>
-    <t>​1m32s</t>
-  </si>
-  <si>
-    <t>​1m4s</t>
-  </si>
-  <si>
-    <t>​1m26s</t>
-  </si>
-  <si>
-    <t>1m15s</t>
-  </si>
-  <si>
-    <t>3m25s</t>
-  </si>
-  <si>
-    <t>3m14s</t>
-  </si>
-  <si>
-    <t>2m45s</t>
-  </si>
-  <si>
-    <t>2m15s</t>
   </si>
 </sst>
 </file>
@@ -255,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,23 +206,10 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -292,6 +219,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -573,26 +505,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="14"/>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -600,158 +532,159 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10">
+        <v>65</v>
+      </c>
+      <c r="E3" s="10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="11">
+        <v>78</v>
+      </c>
+      <c r="C4" s="11">
+        <v>47</v>
+      </c>
+      <c r="D4" s="11">
+        <v>76</v>
+      </c>
+      <c r="E4" s="11">
+        <v>64</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B5" s="11">
+        <v>85</v>
+      </c>
+      <c r="C5" s="11">
+        <v>51</v>
+      </c>
+      <c r="D5" s="11">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B6" s="11">
+        <v>76</v>
+      </c>
+      <c r="C6" s="11">
+        <v>80</v>
+      </c>
+      <c r="D6" s="11">
+        <v>90</v>
+      </c>
+      <c r="E6" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B7" s="11">
+        <v>78</v>
+      </c>
+      <c r="C7" s="11">
+        <v>80</v>
+      </c>
+      <c r="D7" s="11">
+        <v>86</v>
+      </c>
+      <c r="E7" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B8" s="11">
+        <v>85</v>
+      </c>
+      <c r="C8" s="11">
+        <v>51</v>
+      </c>
+      <c r="D8" s="11">
+        <v>205</v>
+      </c>
+      <c r="E8" s="11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B9" s="11">
+        <v>30</v>
+      </c>
+      <c r="C9" s="11">
+        <v>90</v>
+      </c>
+      <c r="D9" s="11">
+        <v>165</v>
+      </c>
+      <c r="E9" s="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/na_jedne_noze.xlsx
+++ b/na_jedne_noze.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansu\Desktop\m_a_bakalarka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB220269-EE79-4A98-943B-CB2C0FFB1D21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9487962E-E1C9-4C83-959C-109FB67D92BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -195,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,7 +218,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -218,12 +226,14 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -508,21 +518,21 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -532,10 +542,10 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -543,16 +553,16 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>17</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>19</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>65</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>92</v>
       </c>
     </row>
@@ -560,34 +570,34 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>78</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>47</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>76</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>64</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>85</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>51</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>30</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>90</v>
       </c>
     </row>
@@ -595,16 +605,16 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>76</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>80</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>90</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>86</v>
       </c>
     </row>
@@ -612,16 +622,16 @@
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>78</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>80</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>86</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>75</v>
       </c>
     </row>
@@ -629,16 +639,16 @@
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>85</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>51</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>205</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>194</v>
       </c>
     </row>
@@ -646,16 +656,16 @@
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>30</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>90</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>165</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>135</v>
       </c>
     </row>
@@ -663,28 +673,52 @@
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="14">
+        <v>75</v>
+      </c>
+      <c r="C10" s="14">
+        <v>52</v>
+      </c>
+      <c r="D10" s="14">
+        <v>201</v>
+      </c>
+      <c r="E10" s="14">
+        <v>195</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="14">
+        <v>73</v>
+      </c>
+      <c r="C11" s="14">
+        <v>56</v>
+      </c>
+      <c r="D11" s="14">
+        <v>79</v>
+      </c>
+      <c r="E11" s="14">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="14">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14">
+        <v>38</v>
+      </c>
+      <c r="D12" s="14">
+        <v>37</v>
+      </c>
+      <c r="E12" s="14">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
